--- a/Code/Results/Cases/Case_3_240/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_240/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.008933293238821</v>
+        <v>1.058005996960946</v>
       </c>
       <c r="D2">
-        <v>1.026272611623622</v>
+        <v>1.056605989075327</v>
       </c>
       <c r="E2">
-        <v>1.020605917277576</v>
+        <v>1.063696170159247</v>
       </c>
       <c r="F2">
-        <v>1.02867985918918</v>
+        <v>1.073978272471214</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.050946534631265</v>
+        <v>1.045527381813204</v>
       </c>
       <c r="J2">
-        <v>1.030850054991379</v>
+        <v>1.062999464318567</v>
       </c>
       <c r="K2">
-        <v>1.03737767026672</v>
+        <v>1.059343239533129</v>
       </c>
       <c r="L2">
-        <v>1.03178545333093</v>
+        <v>1.066414111728983</v>
       </c>
       <c r="M2">
-        <v>1.03975359023326</v>
+        <v>1.076668702223863</v>
       </c>
       <c r="N2">
-        <v>1.032313980309621</v>
+        <v>1.064509045485642</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.01823112636567</v>
+        <v>1.059740620401336</v>
       </c>
       <c r="D3">
-        <v>1.033520117443631</v>
+        <v>1.057949509371131</v>
       </c>
       <c r="E3">
-        <v>1.028872627105628</v>
+        <v>1.065267267848745</v>
       </c>
       <c r="F3">
-        <v>1.037370759050757</v>
+        <v>1.075653167078425</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.054373499148894</v>
+        <v>1.046034609677996</v>
       </c>
       <c r="J3">
-        <v>1.03823683646914</v>
+        <v>1.064383011354173</v>
       </c>
       <c r="K3">
-        <v>1.043741340397535</v>
+        <v>1.060499084107653</v>
       </c>
       <c r="L3">
-        <v>1.039148939208955</v>
+        <v>1.067798375033153</v>
       </c>
       <c r="M3">
-        <v>1.047546800896189</v>
+        <v>1.078158527983149</v>
       </c>
       <c r="N3">
-        <v>1.039711251864356</v>
+        <v>1.065894557316734</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.024026460813258</v>
+        <v>1.060859979086272</v>
       </c>
       <c r="D4">
-        <v>1.038039496753319</v>
+        <v>1.058816079259723</v>
       </c>
       <c r="E4">
-        <v>1.034027603753724</v>
+        <v>1.066280829821064</v>
       </c>
       <c r="F4">
-        <v>1.042794383650454</v>
+        <v>1.076734191208752</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.056493487115912</v>
+        <v>1.046359929583471</v>
       </c>
       <c r="J4">
-        <v>1.042834914767421</v>
+        <v>1.06527489073295</v>
       </c>
       <c r="K4">
-        <v>1.047699512416401</v>
+        <v>1.061243681514274</v>
       </c>
       <c r="L4">
-        <v>1.043731984561875</v>
+        <v>1.068690554513163</v>
       </c>
       <c r="M4">
-        <v>1.052402360417628</v>
+        <v>1.079119327759909</v>
       </c>
       <c r="N4">
-        <v>1.044315859961228</v>
+        <v>1.066787703266529</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.026413575740898</v>
+        <v>1.061329840635215</v>
       </c>
       <c r="D5">
-        <v>1.039901376044724</v>
+        <v>1.059179731201898</v>
       </c>
       <c r="E5">
-        <v>1.036151412747624</v>
+        <v>1.066706216399681</v>
       </c>
       <c r="F5">
-        <v>1.045029856316758</v>
+        <v>1.077188010774104</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.057362791365653</v>
+        <v>1.04649600729005</v>
       </c>
       <c r="J5">
-        <v>1.044727337363092</v>
+        <v>1.065649042941242</v>
       </c>
       <c r="K5">
-        <v>1.049327803479314</v>
+        <v>1.061555927809105</v>
       </c>
       <c r="L5">
-        <v>1.045618087706444</v>
+        <v>1.069064794106413</v>
       </c>
       <c r="M5">
-        <v>1.054401812962928</v>
+        <v>1.079522490924167</v>
       </c>
       <c r="N5">
-        <v>1.046210970014048</v>
+        <v>1.067162386813872</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.026811594305771</v>
+        <v>1.061408690865975</v>
       </c>
       <c r="D6">
-        <v>1.04021183435208</v>
+        <v>1.059240751925261</v>
       </c>
       <c r="E6">
-        <v>1.036505552906728</v>
+        <v>1.066777599153093</v>
       </c>
       <c r="F6">
-        <v>1.045402673736375</v>
+        <v>1.077264171778844</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.057507502825996</v>
+        <v>1.04651881521247</v>
       </c>
       <c r="J6">
-        <v>1.045042780157691</v>
+        <v>1.065711818548989</v>
       </c>
       <c r="K6">
-        <v>1.049599172809158</v>
+        <v>1.06160830974929</v>
       </c>
       <c r="L6">
-        <v>1.045932469223014</v>
+        <v>1.069127582122278</v>
       </c>
       <c r="M6">
-        <v>1.054735158112546</v>
+        <v>1.079590139778003</v>
       </c>
       <c r="N6">
-        <v>1.046526860773597</v>
+        <v>1.067225251570183</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.02405854650802</v>
+        <v>1.060866260194912</v>
       </c>
       <c r="D7">
-        <v>1.038064521513526</v>
+        <v>1.058820940949694</v>
       </c>
       <c r="E7">
-        <v>1.034056148607624</v>
+        <v>1.066286516647558</v>
       </c>
       <c r="F7">
-        <v>1.042824425423937</v>
+        <v>1.076740257675144</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.056505187265591</v>
+        <v>1.046361750551872</v>
       </c>
       <c r="J7">
-        <v>1.042860357398415</v>
+        <v>1.065279893275441</v>
       </c>
       <c r="K7">
-        <v>1.047721407021941</v>
+        <v>1.061247856824944</v>
       </c>
       <c r="L7">
-        <v>1.043757342761479</v>
+        <v>1.068695558375216</v>
       </c>
       <c r="M7">
-        <v>1.052429237833963</v>
+        <v>1.0791247178026</v>
       </c>
       <c r="N7">
-        <v>1.044341338723676</v>
+        <v>1.066792712913203</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.012123630695966</v>
+        <v>1.058592863707716</v>
       </c>
       <c r="D8">
-        <v>1.028758902820337</v>
+        <v>1.057060619769805</v>
       </c>
       <c r="E8">
-        <v>1.023441885107554</v>
+        <v>1.064227768390716</v>
       </c>
       <c r="F8">
-        <v>1.031660467939359</v>
+        <v>1.074544887773909</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.052125770930163</v>
+        <v>1.045699403473031</v>
       </c>
       <c r="J8">
-        <v>1.033385903479748</v>
+        <v>1.063467745419</v>
       </c>
       <c r="K8">
-        <v>1.039562913208169</v>
+        <v>1.059734554468208</v>
       </c>
       <c r="L8">
-        <v>1.034313414213452</v>
+        <v>1.066882668923757</v>
       </c>
       <c r="M8">
-        <v>1.042427998499081</v>
+        <v>1.077172869870779</v>
       </c>
       <c r="N8">
-        <v>1.034853429993709</v>
+        <v>1.06497799159895</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9892111611603872</v>
+        <v>1.054562728175009</v>
       </c>
       <c r="D9">
-        <v>1.010918812115548</v>
+        <v>1.053936943153364</v>
       </c>
       <c r="E9">
-        <v>1.003089755090391</v>
+        <v>1.060576065608785</v>
       </c>
       <c r="F9">
-        <v>1.010288863597419</v>
+        <v>1.070654708808215</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.043589861832986</v>
+        <v>1.044509891208315</v>
       </c>
       <c r="J9">
-        <v>1.015150739220307</v>
+        <v>1.06024815291053</v>
       </c>
       <c r="K9">
-        <v>1.023837188760341</v>
+        <v>1.05704209750602</v>
       </c>
       <c r="L9">
-        <v>1.016132901291953</v>
+        <v>1.063660503569154</v>
       </c>
       <c r="M9">
-        <v>1.023217187965103</v>
+        <v>1.07370823358823</v>
       </c>
       <c r="N9">
-        <v>1.016592369709417</v>
+        <v>1.061753826899826</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9723582839056398</v>
+        <v>1.051858778027745</v>
       </c>
       <c r="D10">
-        <v>0.9978272112354375</v>
+        <v>1.051839164384542</v>
       </c>
       <c r="E10">
-        <v>0.9881468031021662</v>
+        <v>1.058124643669249</v>
       </c>
       <c r="F10">
-        <v>0.994621898556177</v>
+        <v>1.06804580209826</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.037229695346336</v>
+        <v>1.043701510364814</v>
       </c>
       <c r="J10">
-        <v>1.001713209177639</v>
+        <v>1.058083248497235</v>
       </c>
       <c r="K10">
-        <v>1.012235807185545</v>
+        <v>1.055229109904061</v>
       </c>
       <c r="L10">
-        <v>1.002733420209831</v>
+        <v>1.061493012283685</v>
       </c>
       <c r="M10">
-        <v>1.009088940002808</v>
+        <v>1.071380680801736</v>
       </c>
       <c r="N10">
-        <v>1.003135756832782</v>
+        <v>1.059585848073946</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9645984097785707</v>
+        <v>1.050683641347929</v>
       </c>
       <c r="D11">
-        <v>0.9918101215713037</v>
+        <v>1.050927011859769</v>
       </c>
       <c r="E11">
-        <v>0.9812753946304821</v>
+        <v>1.057058935588193</v>
       </c>
       <c r="F11">
-        <v>0.9874236096289002</v>
+        <v>1.066912251171927</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.034283461811361</v>
+        <v>1.043347751913728</v>
       </c>
       <c r="J11">
-        <v>0.9955218755545555</v>
+        <v>1.057141254047852</v>
       </c>
       <c r="K11">
-        <v>1.006888157550868</v>
+        <v>1.054439646489491</v>
       </c>
       <c r="L11">
-        <v>0.9965592847833357</v>
+        <v>1.060549686497537</v>
       </c>
       <c r="M11">
-        <v>1.002586660421847</v>
+        <v>1.070368417724803</v>
       </c>
       <c r="N11">
-        <v>0.9969356308057978</v>
+        <v>1.058642515884397</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9616372704102242</v>
+        <v>1.05024647704506</v>
       </c>
       <c r="D12">
-        <v>0.9895160378475426</v>
+        <v>1.050587613295075</v>
       </c>
       <c r="E12">
-        <v>0.9786549287270813</v>
+        <v>1.056662432381907</v>
       </c>
       <c r="F12">
-        <v>0.984679416383284</v>
+        <v>1.066490600057788</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.033156707634832</v>
+        <v>1.043215784253414</v>
       </c>
       <c r="J12">
-        <v>0.9931588733805873</v>
+        <v>1.056790652450909</v>
       </c>
       <c r="K12">
-        <v>1.004846888579443</v>
+        <v>1.054145726655572</v>
       </c>
       <c r="L12">
-        <v>0.9942028194235625</v>
+        <v>1.060198558273894</v>
       </c>
       <c r="M12">
-        <v>1.000106140800936</v>
+        <v>1.069991738335236</v>
       </c>
       <c r="N12">
-        <v>0.9945692728977026</v>
+        <v>1.058291416392972</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9622761788743606</v>
+        <v>1.050340280725941</v>
       </c>
       <c r="D13">
-        <v>0.9900109219138724</v>
+        <v>1.050660442108241</v>
       </c>
       <c r="E13">
-        <v>0.9792202531261357</v>
+        <v>1.056747513432143</v>
       </c>
       <c r="F13">
-        <v>0.9852713906600793</v>
+        <v>1.066581073077125</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.033399929786817</v>
+        <v>1.043244117483376</v>
       </c>
       <c r="J13">
-        <v>0.9936687401808307</v>
+        <v>1.056865889740274</v>
       </c>
       <c r="K13">
-        <v>1.005287345519914</v>
+        <v>1.054208804343512</v>
       </c>
       <c r="L13">
-        <v>0.9947112765575232</v>
+        <v>1.060273909985538</v>
       </c>
       <c r="M13">
-        <v>1.000641311062373</v>
+        <v>1.070072568367236</v>
       </c>
       <c r="N13">
-        <v>0.9950798637672851</v>
+        <v>1.058366760527917</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.964355308349831</v>
+        <v>1.050647518911182</v>
       </c>
       <c r="D14">
-        <v>0.9916217404501726</v>
+        <v>1.050898969071066</v>
       </c>
       <c r="E14">
-        <v>0.9810602266508924</v>
+        <v>1.057026173903558</v>
       </c>
       <c r="F14">
-        <v>0.9871982633563378</v>
+        <v>1.066877409696644</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.034191007451343</v>
+        <v>1.043336855010304</v>
       </c>
       <c r="J14">
-        <v>0.9953278866335171</v>
+        <v>1.057112287639157</v>
       </c>
       <c r="K14">
-        <v>1.006720586037821</v>
+        <v>1.054415364889</v>
       </c>
       <c r="L14">
-        <v>0.9963658328917836</v>
+        <v>1.060520677214911</v>
       </c>
       <c r="M14">
-        <v>1.002383000155404</v>
+        <v>1.070337295251034</v>
       </c>
       <c r="N14">
-        <v>0.996741366398241</v>
+        <v>1.058613508340079</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9656255811198891</v>
+        <v>1.050836729647046</v>
       </c>
       <c r="D15">
-        <v>0.9926061683689619</v>
+        <v>1.051045855545397</v>
       </c>
       <c r="E15">
-        <v>0.9821846074942807</v>
+        <v>1.057197778943542</v>
       </c>
       <c r="F15">
-        <v>0.9883758697011619</v>
+        <v>1.067059912462995</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.034674007862478</v>
+        <v>1.043393918462288</v>
       </c>
       <c r="J15">
-        <v>0.9963415174156911</v>
+        <v>1.057264007911524</v>
       </c>
       <c r="K15">
-        <v>1.007596170174405</v>
+        <v>1.054542543436856</v>
       </c>
       <c r="L15">
-        <v>0.9973766566421164</v>
+        <v>1.060672620777936</v>
       </c>
       <c r="M15">
-        <v>1.003447212986571</v>
+        <v>1.07050031165308</v>
       </c>
       <c r="N15">
-        <v>0.9977564366523908</v>
+        <v>1.058765444072636</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9728627838532535</v>
+        <v>1.05193667559513</v>
       </c>
       <c r="D16">
-        <v>0.9982186600470621</v>
+        <v>1.051899619721229</v>
       </c>
       <c r="E16">
-        <v>0.98859374837424</v>
+        <v>1.058195280730992</v>
       </c>
       <c r="F16">
-        <v>0.9950902316411679</v>
+        <v>1.068120948978591</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.037420892058587</v>
+        <v>1.043724909130373</v>
       </c>
       <c r="J16">
-        <v>1.002115664560093</v>
+        <v>1.058145667838491</v>
       </c>
       <c r="K16">
-        <v>1.012583379231487</v>
+        <v>1.055281409617831</v>
       </c>
       <c r="L16">
-        <v>1.003134752597778</v>
+        <v>1.061555515499288</v>
       </c>
       <c r="M16">
-        <v>1.009511762670295</v>
+        <v>1.07144776692517</v>
       </c>
       <c r="N16">
-        <v>1.003538783748041</v>
+        <v>1.059648356057826</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9772726461033679</v>
+        <v>1.052625475849819</v>
       </c>
       <c r="D17">
-        <v>1.001641593803668</v>
+        <v>1.052434136441291</v>
       </c>
       <c r="E17">
-        <v>0.9925015607001851</v>
+        <v>1.058819843949809</v>
       </c>
       <c r="F17">
-        <v>0.9991857248524537</v>
+        <v>1.068785458964999</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.039090192401924</v>
+        <v>1.043931529191852</v>
       </c>
       <c r="J17">
-        <v>1.00563311668946</v>
+        <v>1.05869747377145</v>
       </c>
       <c r="K17">
-        <v>1.015620901026997</v>
+        <v>1.055743686453734</v>
       </c>
       <c r="L17">
-        <v>1.006642354636188</v>
+        <v>1.062108039173946</v>
       </c>
       <c r="M17">
-        <v>1.013208046340729</v>
+        <v>1.072040886588444</v>
       </c>
       <c r="N17">
-        <v>1.00706123106289</v>
+        <v>1.060200945618503</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9798009353738039</v>
+        <v>1.053026826973911</v>
       </c>
       <c r="D18">
-        <v>1.003605038684808</v>
+        <v>1.052745545232323</v>
       </c>
       <c r="E18">
-        <v>0.9947428322159414</v>
+        <v>1.059183734488114</v>
       </c>
       <c r="F18">
-        <v>1.001535199575443</v>
+        <v>1.069172683494378</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.040045587291227</v>
+        <v>1.044051688289008</v>
       </c>
       <c r="J18">
-        <v>1.007649373417097</v>
+        <v>1.059018892310909</v>
       </c>
       <c r="K18">
-        <v>1.017361833266465</v>
+        <v>1.056012898359392</v>
       </c>
       <c r="L18">
-        <v>1.008652932477471</v>
+        <v>1.0624298560073</v>
       </c>
       <c r="M18">
-        <v>1.015327485988418</v>
+        <v>1.072386418142648</v>
       </c>
       <c r="N18">
-        <v>1.009080351106348</v>
+        <v>1.060522820609155</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9806558233243987</v>
+        <v>1.053163607613387</v>
       </c>
       <c r="D19">
-        <v>1.004269093836308</v>
+        <v>1.052851665948476</v>
       </c>
       <c r="E19">
-        <v>0.9955008029399092</v>
+        <v>1.059307743294424</v>
       </c>
       <c r="F19">
-        <v>1.002329857954139</v>
+        <v>1.069304654322788</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.040368347905783</v>
+        <v>1.044092598757492</v>
       </c>
       <c r="J19">
-        <v>1.008331056864744</v>
+        <v>1.059128413467279</v>
       </c>
       <c r="K19">
-        <v>1.017950391630843</v>
+        <v>1.056104620728596</v>
       </c>
       <c r="L19">
-        <v>1.00933268981263</v>
+        <v>1.06253950953089</v>
       </c>
       <c r="M19">
-        <v>1.016044167624372</v>
+        <v>1.072504163853021</v>
       </c>
       <c r="N19">
-        <v>1.00976300262268</v>
+        <v>1.06063249729813</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9768041128817569</v>
+        <v>1.052551617102246</v>
       </c>
       <c r="D20">
-        <v>1.001277813195884</v>
+        <v>1.052376825786599</v>
       </c>
       <c r="E20">
-        <v>0.9920862813746162</v>
+        <v>1.05875287640739</v>
       </c>
       <c r="F20">
-        <v>0.9987504422738723</v>
+        <v>1.068714202028551</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.038913006319994</v>
+        <v>1.04390939798316</v>
       </c>
       <c r="J20">
-        <v>1.005259438470574</v>
+        <v>1.058638315893391</v>
       </c>
       <c r="K20">
-        <v>1.015298230950977</v>
+        <v>1.055694132715672</v>
       </c>
       <c r="L20">
-        <v>1.006269726106104</v>
+        <v>1.062048806396905</v>
       </c>
       <c r="M20">
-        <v>1.012815299291155</v>
+        <v>1.071977294549554</v>
       </c>
       <c r="N20">
-        <v>1.006687022178071</v>
+        <v>1.060141703729472</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9637453149405845</v>
+        <v>1.050557063467279</v>
       </c>
       <c r="D21">
-        <v>0.9911490857068751</v>
+        <v>1.050828745070242</v>
       </c>
       <c r="E21">
-        <v>0.9805203515562975</v>
+        <v>1.056944133468488</v>
       </c>
       <c r="F21">
-        <v>0.9866328650651337</v>
+        <v>1.066790162646643</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.033958980542737</v>
+        <v>1.043309561797592</v>
       </c>
       <c r="J21">
-        <v>0.9948411211133151</v>
+        <v>1.057039749127276</v>
       </c>
       <c r="K21">
-        <v>1.00630010420053</v>
+        <v>1.054354556775155</v>
       </c>
       <c r="L21">
-        <v>0.9958804145636878</v>
+        <v>1.060448030833806</v>
       </c>
       <c r="M21">
-        <v>1.001871985700369</v>
+        <v>1.070259358678699</v>
       </c>
       <c r="N21">
-        <v>0.9962539096151675</v>
+        <v>1.058540866815191</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9550729154784168</v>
+        <v>1.049299144371489</v>
       </c>
       <c r="D22">
-        <v>0.9844346440236611</v>
+        <v>1.049852016703865</v>
       </c>
       <c r="E22">
-        <v>0.9728491828284488</v>
+        <v>1.055803125547856</v>
       </c>
       <c r="F22">
-        <v>0.9786012988091406</v>
+        <v>1.065576963563167</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.030654509042796</v>
+        <v>1.042929142880548</v>
       </c>
       <c r="J22">
-        <v>0.9879199776995823</v>
+        <v>1.056030592166743</v>
       </c>
       <c r="K22">
-        <v>1.000320891214646</v>
+        <v>1.053508383258332</v>
       </c>
       <c r="L22">
-        <v>0.9889783974351766</v>
+        <v>1.059437299155479</v>
       </c>
       <c r="M22">
-        <v>0.9946089304947844</v>
+        <v>1.069175282891789</v>
       </c>
       <c r="N22">
-        <v>0.9893229373839211</v>
+        <v>1.057530276736022</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9597177011024739</v>
+        <v>1.049966363729034</v>
       </c>
       <c r="D23">
-        <v>0.9880295109497786</v>
+        <v>1.050370124647591</v>
       </c>
       <c r="E23">
-        <v>0.9769567038556393</v>
+        <v>1.056408359354015</v>
       </c>
       <c r="F23">
-        <v>0.9829012741233444</v>
+        <v>1.066220438976569</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.03242561001457</v>
+        <v>1.043131123063618</v>
       </c>
       <c r="J23">
-        <v>0.9916269602168647</v>
+        <v>1.056565956758227</v>
       </c>
       <c r="K23">
-        <v>1.003523487072195</v>
+        <v>1.053957332563516</v>
       </c>
       <c r="L23">
-        <v>0.9926751398144895</v>
+        <v>1.059973516287582</v>
       </c>
       <c r="M23">
-        <v>0.9984983779453377</v>
+        <v>1.069750351011335</v>
       </c>
       <c r="N23">
-        <v>0.9930351842415747</v>
+        <v>1.058066401606633</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9770159578822518</v>
+        <v>1.052584991971254</v>
       </c>
       <c r="D24">
-        <v>1.001442291768697</v>
+        <v>1.052402723134611</v>
       </c>
       <c r="E24">
-        <v>0.9922740453528689</v>
+        <v>1.05878313741341</v>
       </c>
       <c r="F24">
-        <v>0.9989472487572093</v>
+        <v>1.068746401122922</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.038993125314273</v>
+        <v>1.043919399232609</v>
       </c>
       <c r="J24">
-        <v>1.005428396475939</v>
+        <v>1.058665048153034</v>
       </c>
       <c r="K24">
-        <v>1.015444126400801</v>
+        <v>1.055716525234125</v>
       </c>
       <c r="L24">
-        <v>1.006438209599665</v>
+        <v>1.062075572563041</v>
       </c>
       <c r="M24">
-        <v>1.012992877144064</v>
+        <v>1.072006030367973</v>
       </c>
       <c r="N24">
-        <v>1.006856220123184</v>
+        <v>1.06016847395199</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9953867765394563</v>
+        <v>1.055607573021488</v>
       </c>
       <c r="D25">
-        <v>1.015723203438276</v>
+        <v>1.054747138696951</v>
       </c>
       <c r="E25">
-        <v>1.008571543611398</v>
+        <v>1.06152304230054</v>
       </c>
       <c r="F25">
-        <v>1.016041188647525</v>
+        <v>1.071663071116791</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.045904767376775</v>
+        <v>1.044820093665531</v>
       </c>
       <c r="J25">
-        <v>1.020070397740924</v>
+        <v>1.06108369878534</v>
       </c>
       <c r="K25">
-        <v>1.028082243478402</v>
+        <v>1.057741289313943</v>
       </c>
       <c r="L25">
-        <v>1.021038238840455</v>
+        <v>1.064496866726026</v>
       </c>
       <c r="M25">
-        <v>1.028395486756839</v>
+        <v>1.074607000135871</v>
       </c>
       <c r="N25">
-        <v>1.021519014709426</v>
+        <v>1.062590559345617</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_240/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_240/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.058005996960946</v>
+        <v>1.008933293238822</v>
       </c>
       <c r="D2">
-        <v>1.056605989075327</v>
+        <v>1.026272611623622</v>
       </c>
       <c r="E2">
-        <v>1.063696170159247</v>
+        <v>1.020605917277576</v>
       </c>
       <c r="F2">
-        <v>1.073978272471214</v>
+        <v>1.028679859189181</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.045527381813204</v>
+        <v>1.050946534631265</v>
       </c>
       <c r="J2">
-        <v>1.062999464318567</v>
+        <v>1.030850054991379</v>
       </c>
       <c r="K2">
-        <v>1.059343239533129</v>
+        <v>1.03737767026672</v>
       </c>
       <c r="L2">
-        <v>1.066414111728983</v>
+        <v>1.031785453330931</v>
       </c>
       <c r="M2">
-        <v>1.076668702223863</v>
+        <v>1.03975359023326</v>
       </c>
       <c r="N2">
-        <v>1.064509045485642</v>
+        <v>1.032313980309621</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.059740620401336</v>
+        <v>1.018231126365667</v>
       </c>
       <c r="D3">
-        <v>1.057949509371131</v>
+        <v>1.033520117443629</v>
       </c>
       <c r="E3">
-        <v>1.065267267848745</v>
+        <v>1.028872627105626</v>
       </c>
       <c r="F3">
-        <v>1.075653167078425</v>
+        <v>1.037370759050755</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.046034609677996</v>
+        <v>1.054373499148893</v>
       </c>
       <c r="J3">
-        <v>1.064383011354173</v>
+        <v>1.038236836469138</v>
       </c>
       <c r="K3">
-        <v>1.060499084107653</v>
+        <v>1.043741340397533</v>
       </c>
       <c r="L3">
-        <v>1.067798375033153</v>
+        <v>1.039148939208953</v>
       </c>
       <c r="M3">
-        <v>1.078158527983149</v>
+        <v>1.047546800896187</v>
       </c>
       <c r="N3">
-        <v>1.065894557316734</v>
+        <v>1.039711251864354</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.060859979086272</v>
+        <v>1.024026460813256</v>
       </c>
       <c r="D4">
-        <v>1.058816079259723</v>
+        <v>1.038039496753318</v>
       </c>
       <c r="E4">
-        <v>1.066280829821064</v>
+        <v>1.034027603753723</v>
       </c>
       <c r="F4">
-        <v>1.076734191208752</v>
+        <v>1.042794383650453</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.046359929583471</v>
+        <v>1.056493487115911</v>
       </c>
       <c r="J4">
-        <v>1.06527489073295</v>
+        <v>1.04283491476742</v>
       </c>
       <c r="K4">
-        <v>1.061243681514274</v>
+        <v>1.0476995124164</v>
       </c>
       <c r="L4">
-        <v>1.068690554513163</v>
+        <v>1.043731984561873</v>
       </c>
       <c r="M4">
-        <v>1.079119327759909</v>
+        <v>1.052402360417627</v>
       </c>
       <c r="N4">
-        <v>1.066787703266529</v>
+        <v>1.044315859961226</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.061329840635215</v>
+        <v>1.026413575740895</v>
       </c>
       <c r="D5">
-        <v>1.059179731201898</v>
+        <v>1.039901376044722</v>
       </c>
       <c r="E5">
-        <v>1.066706216399681</v>
+        <v>1.036151412747622</v>
       </c>
       <c r="F5">
-        <v>1.077188010774104</v>
+        <v>1.045029856316756</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.04649600729005</v>
+        <v>1.057362791365652</v>
       </c>
       <c r="J5">
-        <v>1.065649042941242</v>
+        <v>1.04472733736309</v>
       </c>
       <c r="K5">
-        <v>1.061555927809105</v>
+        <v>1.049327803479312</v>
       </c>
       <c r="L5">
-        <v>1.069064794106413</v>
+        <v>1.045618087706442</v>
       </c>
       <c r="M5">
-        <v>1.079522490924167</v>
+        <v>1.054401812962926</v>
       </c>
       <c r="N5">
-        <v>1.067162386813872</v>
+        <v>1.046210970014046</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.061408690865975</v>
+        <v>1.026811594305773</v>
       </c>
       <c r="D6">
-        <v>1.059240751925261</v>
+        <v>1.040211834352082</v>
       </c>
       <c r="E6">
-        <v>1.066777599153093</v>
+        <v>1.03650555290673</v>
       </c>
       <c r="F6">
-        <v>1.077264171778844</v>
+        <v>1.045402673736378</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.04651881521247</v>
+        <v>1.057507502825997</v>
       </c>
       <c r="J6">
-        <v>1.065711818548989</v>
+        <v>1.045042780157693</v>
       </c>
       <c r="K6">
-        <v>1.06160830974929</v>
+        <v>1.04959917280916</v>
       </c>
       <c r="L6">
-        <v>1.069127582122278</v>
+        <v>1.045932469223016</v>
       </c>
       <c r="M6">
-        <v>1.079590139778003</v>
+        <v>1.054735158112549</v>
       </c>
       <c r="N6">
-        <v>1.067225251570183</v>
+        <v>1.0465268607736</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.060866260194912</v>
+        <v>1.024058546508017</v>
       </c>
       <c r="D7">
-        <v>1.058820940949694</v>
+        <v>1.038064521513522</v>
       </c>
       <c r="E7">
-        <v>1.066286516647558</v>
+        <v>1.034056148607621</v>
       </c>
       <c r="F7">
-        <v>1.076740257675144</v>
+        <v>1.042824425423934</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.046361750551872</v>
+        <v>1.056505187265589</v>
       </c>
       <c r="J7">
-        <v>1.065279893275441</v>
+        <v>1.042860357398412</v>
       </c>
       <c r="K7">
-        <v>1.061247856824944</v>
+        <v>1.047721407021938</v>
       </c>
       <c r="L7">
-        <v>1.068695558375216</v>
+        <v>1.043757342761476</v>
       </c>
       <c r="M7">
-        <v>1.0791247178026</v>
+        <v>1.052429237833961</v>
       </c>
       <c r="N7">
-        <v>1.066792712913203</v>
+        <v>1.044341338723673</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.058592863707716</v>
+        <v>1.012123630695966</v>
       </c>
       <c r="D8">
-        <v>1.057060619769805</v>
+        <v>1.028758902820336</v>
       </c>
       <c r="E8">
-        <v>1.064227768390716</v>
+        <v>1.023441885107554</v>
       </c>
       <c r="F8">
-        <v>1.074544887773909</v>
+        <v>1.031660467939359</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.045699403473031</v>
+        <v>1.052125770930163</v>
       </c>
       <c r="J8">
-        <v>1.063467745419</v>
+        <v>1.033385903479748</v>
       </c>
       <c r="K8">
-        <v>1.059734554468208</v>
+        <v>1.039562913208168</v>
       </c>
       <c r="L8">
-        <v>1.066882668923757</v>
+        <v>1.034313414213452</v>
       </c>
       <c r="M8">
-        <v>1.077172869870779</v>
+        <v>1.042427998499081</v>
       </c>
       <c r="N8">
-        <v>1.06497799159895</v>
+        <v>1.034853429993709</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.054562728175009</v>
+        <v>0.989211161160387</v>
       </c>
       <c r="D9">
-        <v>1.053936943153364</v>
+        <v>1.010918812115547</v>
       </c>
       <c r="E9">
-        <v>1.060576065608785</v>
+        <v>1.003089755090391</v>
       </c>
       <c r="F9">
-        <v>1.070654708808215</v>
+        <v>1.010288863597419</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.044509891208315</v>
+        <v>1.043589861832985</v>
       </c>
       <c r="J9">
-        <v>1.06024815291053</v>
+        <v>1.015150739220307</v>
       </c>
       <c r="K9">
-        <v>1.05704209750602</v>
+        <v>1.023837188760341</v>
       </c>
       <c r="L9">
-        <v>1.063660503569154</v>
+        <v>1.016132901291953</v>
       </c>
       <c r="M9">
-        <v>1.07370823358823</v>
+        <v>1.023217187965104</v>
       </c>
       <c r="N9">
-        <v>1.061753826899826</v>
+        <v>1.016592369709417</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.051858778027745</v>
+        <v>0.9723582839056378</v>
       </c>
       <c r="D10">
-        <v>1.051839164384542</v>
+        <v>0.9978272112354356</v>
       </c>
       <c r="E10">
-        <v>1.058124643669249</v>
+        <v>0.9881468031021647</v>
       </c>
       <c r="F10">
-        <v>1.06804580209826</v>
+        <v>0.9946218985561756</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.043701510364814</v>
+        <v>1.037229695346335</v>
       </c>
       <c r="J10">
-        <v>1.058083248497235</v>
+        <v>1.001713209177637</v>
       </c>
       <c r="K10">
-        <v>1.055229109904061</v>
+        <v>1.012235807185544</v>
       </c>
       <c r="L10">
-        <v>1.061493012283685</v>
+        <v>1.00273342020983</v>
       </c>
       <c r="M10">
-        <v>1.071380680801736</v>
+        <v>1.009088940002807</v>
       </c>
       <c r="N10">
-        <v>1.059585848073946</v>
+        <v>1.00313575683278</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.050683641347929</v>
+        <v>0.9645984097785711</v>
       </c>
       <c r="D11">
-        <v>1.050927011859769</v>
+        <v>0.9918101215713041</v>
       </c>
       <c r="E11">
-        <v>1.057058935588193</v>
+        <v>0.9812753946304823</v>
       </c>
       <c r="F11">
-        <v>1.066912251171927</v>
+        <v>0.9874236096289006</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.043347751913728</v>
+        <v>1.034283461811361</v>
       </c>
       <c r="J11">
-        <v>1.057141254047852</v>
+        <v>0.9955218755545561</v>
       </c>
       <c r="K11">
-        <v>1.054439646489491</v>
+        <v>1.006888157550868</v>
       </c>
       <c r="L11">
-        <v>1.060549686497537</v>
+        <v>0.996559284783336</v>
       </c>
       <c r="M11">
-        <v>1.070368417724803</v>
+        <v>1.002586660421848</v>
       </c>
       <c r="N11">
-        <v>1.058642515884397</v>
+        <v>0.9969356308057988</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.05024647704506</v>
+        <v>0.9616372704102261</v>
       </c>
       <c r="D12">
-        <v>1.050587613295075</v>
+        <v>0.9895160378475446</v>
       </c>
       <c r="E12">
-        <v>1.056662432381907</v>
+        <v>0.9786549287270832</v>
       </c>
       <c r="F12">
-        <v>1.066490600057788</v>
+        <v>0.984679416383286</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.043215784253414</v>
+        <v>1.033156707634833</v>
       </c>
       <c r="J12">
-        <v>1.056790652450909</v>
+        <v>0.9931588733805892</v>
       </c>
       <c r="K12">
-        <v>1.054145726655572</v>
+        <v>1.004846888579445</v>
       </c>
       <c r="L12">
-        <v>1.060198558273894</v>
+        <v>0.9942028194235644</v>
       </c>
       <c r="M12">
-        <v>1.069991738335236</v>
+        <v>1.000106140800937</v>
       </c>
       <c r="N12">
-        <v>1.058291416392972</v>
+        <v>0.9945692728977047</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.050340280725941</v>
+        <v>0.962276178874359</v>
       </c>
       <c r="D13">
-        <v>1.050660442108241</v>
+        <v>0.9900109219138709</v>
       </c>
       <c r="E13">
-        <v>1.056747513432143</v>
+        <v>0.9792202531261344</v>
       </c>
       <c r="F13">
-        <v>1.066581073077125</v>
+        <v>0.9852713906600779</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.043244117483376</v>
+        <v>1.033399929786816</v>
       </c>
       <c r="J13">
-        <v>1.056865889740274</v>
+        <v>0.9936687401808294</v>
       </c>
       <c r="K13">
-        <v>1.054208804343512</v>
+        <v>1.005287345519913</v>
       </c>
       <c r="L13">
-        <v>1.060273909985538</v>
+        <v>0.994711276557522</v>
       </c>
       <c r="M13">
-        <v>1.070072568367236</v>
+        <v>1.000641311062372</v>
       </c>
       <c r="N13">
-        <v>1.058366760527917</v>
+        <v>0.9950798637672836</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.050647518911182</v>
+        <v>0.9643553083498355</v>
       </c>
       <c r="D14">
-        <v>1.050898969071066</v>
+        <v>0.9916217404501768</v>
       </c>
       <c r="E14">
-        <v>1.057026173903558</v>
+        <v>0.9810602266508968</v>
       </c>
       <c r="F14">
-        <v>1.066877409696644</v>
+        <v>0.9871982633563422</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.043336855010304</v>
+        <v>1.034191007451345</v>
       </c>
       <c r="J14">
-        <v>1.057112287639157</v>
+        <v>0.9953278866335217</v>
       </c>
       <c r="K14">
-        <v>1.054415364889</v>
+        <v>1.006720586037825</v>
       </c>
       <c r="L14">
-        <v>1.060520677214911</v>
+        <v>0.9963658328917876</v>
       </c>
       <c r="M14">
-        <v>1.070337295251034</v>
+        <v>1.002383000155408</v>
       </c>
       <c r="N14">
-        <v>1.058613508340079</v>
+        <v>0.9967413663982455</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.050836729647046</v>
+        <v>0.9656255811198882</v>
       </c>
       <c r="D15">
-        <v>1.051045855545397</v>
+        <v>0.9926061683689611</v>
       </c>
       <c r="E15">
-        <v>1.057197778943542</v>
+        <v>0.9821846074942799</v>
       </c>
       <c r="F15">
-        <v>1.067059912462995</v>
+        <v>0.9883758697011614</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.043393918462288</v>
+        <v>1.034674007862477</v>
       </c>
       <c r="J15">
-        <v>1.057264007911524</v>
+        <v>0.9963415174156905</v>
       </c>
       <c r="K15">
-        <v>1.054542543436856</v>
+        <v>1.007596170174404</v>
       </c>
       <c r="L15">
-        <v>1.060672620777936</v>
+        <v>0.9973766566421156</v>
       </c>
       <c r="M15">
-        <v>1.07050031165308</v>
+        <v>1.003447212986571</v>
       </c>
       <c r="N15">
-        <v>1.058765444072636</v>
+        <v>0.9977564366523901</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.05193667559513</v>
+        <v>0.9728627838532514</v>
       </c>
       <c r="D16">
-        <v>1.051899619721229</v>
+        <v>0.9982186600470599</v>
       </c>
       <c r="E16">
-        <v>1.058195280730992</v>
+        <v>0.9885937483742384</v>
       </c>
       <c r="F16">
-        <v>1.068120948978591</v>
+        <v>0.9950902316411657</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.043724909130373</v>
+        <v>1.037420892058585</v>
       </c>
       <c r="J16">
-        <v>1.058145667838491</v>
+        <v>1.002115664560091</v>
       </c>
       <c r="K16">
-        <v>1.055281409617831</v>
+        <v>1.012583379231485</v>
       </c>
       <c r="L16">
-        <v>1.061555515499288</v>
+        <v>1.003134752597776</v>
       </c>
       <c r="M16">
-        <v>1.07144776692517</v>
+        <v>1.009511762670293</v>
       </c>
       <c r="N16">
-        <v>1.059648356057826</v>
+        <v>1.003538783748039</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.052625475849819</v>
+        <v>0.9772726461033655</v>
       </c>
       <c r="D17">
-        <v>1.052434136441291</v>
+        <v>1.001641593803666</v>
       </c>
       <c r="E17">
-        <v>1.058819843949809</v>
+        <v>0.9925015607001829</v>
       </c>
       <c r="F17">
-        <v>1.068785458964999</v>
+        <v>0.9991857248524512</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.043931529191852</v>
+        <v>1.039090192401923</v>
       </c>
       <c r="J17">
-        <v>1.05869747377145</v>
+        <v>1.005633116689457</v>
       </c>
       <c r="K17">
-        <v>1.055743686453734</v>
+        <v>1.015620901026995</v>
       </c>
       <c r="L17">
-        <v>1.062108039173946</v>
+        <v>1.006642354636186</v>
       </c>
       <c r="M17">
-        <v>1.072040886588444</v>
+        <v>1.013208046340727</v>
       </c>
       <c r="N17">
-        <v>1.060200945618503</v>
+        <v>1.007061231062887</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.053026826973911</v>
+        <v>0.9798009353738069</v>
       </c>
       <c r="D18">
-        <v>1.052745545232323</v>
+        <v>1.003605038684811</v>
       </c>
       <c r="E18">
-        <v>1.059183734488114</v>
+        <v>0.9947428322159442</v>
       </c>
       <c r="F18">
-        <v>1.069172683494378</v>
+        <v>1.001535199575446</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.044051688289008</v>
+        <v>1.040045587291229</v>
       </c>
       <c r="J18">
-        <v>1.059018892310909</v>
+        <v>1.0076493734171</v>
       </c>
       <c r="K18">
-        <v>1.056012898359392</v>
+        <v>1.017361833266467</v>
       </c>
       <c r="L18">
-        <v>1.0624298560073</v>
+        <v>1.008652932477473</v>
       </c>
       <c r="M18">
-        <v>1.072386418142648</v>
+        <v>1.01532748598842</v>
       </c>
       <c r="N18">
-        <v>1.060522820609155</v>
+        <v>1.009080351106351</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.053163607613387</v>
+        <v>0.9806558233243985</v>
       </c>
       <c r="D19">
-        <v>1.052851665948476</v>
+        <v>1.004269093836307</v>
       </c>
       <c r="E19">
-        <v>1.059307743294424</v>
+        <v>0.9955008029399091</v>
       </c>
       <c r="F19">
-        <v>1.069304654322788</v>
+        <v>1.002329857954139</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.044092598757492</v>
+        <v>1.040368347905783</v>
       </c>
       <c r="J19">
-        <v>1.059128413467279</v>
+        <v>1.008331056864743</v>
       </c>
       <c r="K19">
-        <v>1.056104620728596</v>
+        <v>1.017950391630843</v>
       </c>
       <c r="L19">
-        <v>1.06253950953089</v>
+        <v>1.00933268981263</v>
       </c>
       <c r="M19">
-        <v>1.072504163853021</v>
+        <v>1.016044167624372</v>
       </c>
       <c r="N19">
-        <v>1.06063249729813</v>
+        <v>1.00976300262268</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.052551617102246</v>
+        <v>0.9768041128817564</v>
       </c>
       <c r="D20">
-        <v>1.052376825786599</v>
+        <v>1.001277813195883</v>
       </c>
       <c r="E20">
-        <v>1.05875287640739</v>
+        <v>0.9920862813746159</v>
       </c>
       <c r="F20">
-        <v>1.068714202028551</v>
+        <v>0.9987504422738721</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.04390939798316</v>
+        <v>1.038913006319994</v>
       </c>
       <c r="J20">
-        <v>1.058638315893391</v>
+        <v>1.005259438470573</v>
       </c>
       <c r="K20">
-        <v>1.055694132715672</v>
+        <v>1.015298230950976</v>
       </c>
       <c r="L20">
-        <v>1.062048806396905</v>
+        <v>1.006269726106104</v>
       </c>
       <c r="M20">
-        <v>1.071977294549554</v>
+        <v>1.012815299291155</v>
       </c>
       <c r="N20">
-        <v>1.060141703729472</v>
+        <v>1.00668702217807</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.050557063467279</v>
+        <v>0.9637453149405862</v>
       </c>
       <c r="D21">
-        <v>1.050828745070242</v>
+        <v>0.9911490857068768</v>
       </c>
       <c r="E21">
-        <v>1.056944133468488</v>
+        <v>0.9805203515562991</v>
       </c>
       <c r="F21">
-        <v>1.066790162646643</v>
+        <v>0.986632865065135</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.043309561797592</v>
+        <v>1.033958980542738</v>
       </c>
       <c r="J21">
-        <v>1.057039749127276</v>
+        <v>0.9948411211133167</v>
       </c>
       <c r="K21">
-        <v>1.054354556775155</v>
+        <v>1.006300104200531</v>
       </c>
       <c r="L21">
-        <v>1.060448030833806</v>
+        <v>0.9958804145636895</v>
       </c>
       <c r="M21">
-        <v>1.070259358678699</v>
+        <v>1.00187198570037</v>
       </c>
       <c r="N21">
-        <v>1.058540866815191</v>
+        <v>0.996253909615169</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.049299144371489</v>
+        <v>0.9550729154784126</v>
       </c>
       <c r="D22">
-        <v>1.049852016703865</v>
+        <v>0.9844346440236571</v>
       </c>
       <c r="E22">
-        <v>1.055803125547856</v>
+        <v>0.9728491828284449</v>
       </c>
       <c r="F22">
-        <v>1.065576963563167</v>
+        <v>0.9786012988091363</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.042929142880548</v>
+        <v>1.030654509042794</v>
       </c>
       <c r="J22">
-        <v>1.056030592166743</v>
+        <v>0.9879199776995783</v>
       </c>
       <c r="K22">
-        <v>1.053508383258332</v>
+        <v>1.000320891214642</v>
       </c>
       <c r="L22">
-        <v>1.059437299155479</v>
+        <v>0.9889783974351727</v>
       </c>
       <c r="M22">
-        <v>1.069175282891789</v>
+        <v>0.9946089304947804</v>
       </c>
       <c r="N22">
-        <v>1.057530276736022</v>
+        <v>0.9893229373839167</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.049966363729034</v>
+        <v>0.9597177011024743</v>
       </c>
       <c r="D23">
-        <v>1.050370124647591</v>
+        <v>0.988029510949779</v>
       </c>
       <c r="E23">
-        <v>1.056408359354015</v>
+        <v>0.9769567038556398</v>
       </c>
       <c r="F23">
-        <v>1.066220438976569</v>
+        <v>0.9829012741233448</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.043131123063618</v>
+        <v>1.032425610014571</v>
       </c>
       <c r="J23">
-        <v>1.056565956758227</v>
+        <v>0.9916269602168651</v>
       </c>
       <c r="K23">
-        <v>1.053957332563516</v>
+        <v>1.003523487072195</v>
       </c>
       <c r="L23">
-        <v>1.059973516287582</v>
+        <v>0.9926751398144901</v>
       </c>
       <c r="M23">
-        <v>1.069750351011335</v>
+        <v>0.9984983779453385</v>
       </c>
       <c r="N23">
-        <v>1.058066401606633</v>
+        <v>0.9930351842415752</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.052584991971254</v>
+        <v>0.9770159578822538</v>
       </c>
       <c r="D24">
-        <v>1.052402723134611</v>
+        <v>1.001442291768699</v>
       </c>
       <c r="E24">
-        <v>1.05878313741341</v>
+        <v>0.9922740453528708</v>
       </c>
       <c r="F24">
-        <v>1.068746401122922</v>
+        <v>0.9989472487572113</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.043919399232609</v>
+        <v>1.038993125314273</v>
       </c>
       <c r="J24">
-        <v>1.058665048153034</v>
+        <v>1.005428396475941</v>
       </c>
       <c r="K24">
-        <v>1.055716525234125</v>
+        <v>1.015444126400803</v>
       </c>
       <c r="L24">
-        <v>1.062075572563041</v>
+        <v>1.006438209599667</v>
       </c>
       <c r="M24">
-        <v>1.072006030367973</v>
+        <v>1.012992877144066</v>
       </c>
       <c r="N24">
-        <v>1.06016847395199</v>
+        <v>1.006856220123186</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.055607573021488</v>
+        <v>0.9953867765394537</v>
       </c>
       <c r="D25">
-        <v>1.054747138696951</v>
+        <v>1.015723203438274</v>
       </c>
       <c r="E25">
-        <v>1.06152304230054</v>
+        <v>1.008571543611395</v>
       </c>
       <c r="F25">
-        <v>1.071663071116791</v>
+        <v>1.016041188647522</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.044820093665531</v>
+        <v>1.045904767376774</v>
       </c>
       <c r="J25">
-        <v>1.06108369878534</v>
+        <v>1.020070397740921</v>
       </c>
       <c r="K25">
-        <v>1.057741289313943</v>
+        <v>1.0280822434784</v>
       </c>
       <c r="L25">
-        <v>1.064496866726026</v>
+        <v>1.021038238840452</v>
       </c>
       <c r="M25">
-        <v>1.074607000135871</v>
+        <v>1.028395486756837</v>
       </c>
       <c r="N25">
-        <v>1.062590559345617</v>
+        <v>1.021519014709423</v>
       </c>
     </row>
   </sheetData>
